--- a/2024-08-19-2024-08-20-records.xlsx
+++ b/2024-08-19-2024-08-20-records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\86\FMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\86\FMS_monitor_virus_autocheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C7FB18-096A-4863-88F3-E3EDD30D1978}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A603B-76E6-492E-8A61-E0803DC75F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1680,9 +1680,6 @@
     <t>connect to www.easy4ip.com</t>
   </si>
   <si>
-    <t>connect to elnfjpk.com</t>
-  </si>
-  <si>
     <t>connect to services.gfe.nvidia.com</t>
   </si>
   <si>
@@ -1846,6 +1843,9 @@
   </si>
   <si>
     <t>connect to clients2.google.com</t>
+  </si>
+  <si>
+    <t>connect to 217.8.117.10</t>
   </si>
 </sst>
 </file>
@@ -1927,9 +1927,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1967,9 +1967,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2002,26 +2002,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2054,26 +2037,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2249,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4554,7 +4520,7 @@
         <v>405</v>
       </c>
       <c r="I79" t="s">
-        <v>550</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -4583,7 +4549,7 @@
         <v>406</v>
       </c>
       <c r="I80" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -4612,7 +4578,7 @@
         <v>407</v>
       </c>
       <c r="I81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4641,7 +4607,7 @@
         <v>408</v>
       </c>
       <c r="I82" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4699,7 +4665,7 @@
         <v>410</v>
       </c>
       <c r="I84" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4728,7 +4694,7 @@
         <v>411</v>
       </c>
       <c r="I85" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4757,7 +4723,7 @@
         <v>412</v>
       </c>
       <c r="I86" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4815,7 +4781,7 @@
         <v>414</v>
       </c>
       <c r="I88" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -4844,7 +4810,7 @@
         <v>415</v>
       </c>
       <c r="I89" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4931,7 +4897,7 @@
         <v>417</v>
       </c>
       <c r="I92" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4960,7 +4926,7 @@
         <v>417</v>
       </c>
       <c r="I93" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -5018,7 +4984,7 @@
         <v>419</v>
       </c>
       <c r="I95" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5076,7 +5042,7 @@
         <v>421</v>
       </c>
       <c r="I97" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5105,7 +5071,7 @@
         <v>422</v>
       </c>
       <c r="I98" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5134,7 +5100,7 @@
         <v>423</v>
       </c>
       <c r="I99" t="s">
-        <v>563</v>
+        <v>605</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -5192,7 +5158,7 @@
         <v>425</v>
       </c>
       <c r="I101" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5221,7 +5187,7 @@
         <v>426</v>
       </c>
       <c r="I102" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -5279,7 +5245,7 @@
         <v>428</v>
       </c>
       <c r="I104" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -5308,7 +5274,7 @@
         <v>429</v>
       </c>
       <c r="I105" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -5366,7 +5332,7 @@
         <v>431</v>
       </c>
       <c r="I107" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -5424,7 +5390,7 @@
         <v>433</v>
       </c>
       <c r="I109" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -5453,7 +5419,7 @@
         <v>433</v>
       </c>
       <c r="I110" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -5482,7 +5448,7 @@
         <v>434</v>
       </c>
       <c r="I111" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -5540,7 +5506,7 @@
         <v>435</v>
       </c>
       <c r="I113" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -5569,7 +5535,7 @@
         <v>435</v>
       </c>
       <c r="I114" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -5598,7 +5564,7 @@
         <v>435</v>
       </c>
       <c r="I115" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5627,7 +5593,7 @@
         <v>436</v>
       </c>
       <c r="I116" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5656,7 +5622,7 @@
         <v>437</v>
       </c>
       <c r="I117" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5714,7 +5680,7 @@
         <v>439</v>
       </c>
       <c r="I119" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5772,7 +5738,7 @@
         <v>441</v>
       </c>
       <c r="I121" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5801,7 +5767,7 @@
         <v>442</v>
       </c>
       <c r="I122" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -5830,7 +5796,7 @@
         <v>442</v>
       </c>
       <c r="I123" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -5859,7 +5825,7 @@
         <v>443</v>
       </c>
       <c r="I124" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -6004,7 +5970,7 @@
         <v>448</v>
       </c>
       <c r="I129" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -6033,7 +5999,7 @@
         <v>448</v>
       </c>
       <c r="I130" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -6062,7 +6028,7 @@
         <v>448</v>
       </c>
       <c r="I131" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -6091,7 +6057,7 @@
         <v>449</v>
       </c>
       <c r="I132" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -6120,7 +6086,7 @@
         <v>450</v>
       </c>
       <c r="I133" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -6178,7 +6144,7 @@
         <v>452</v>
       </c>
       <c r="I135" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -6207,7 +6173,7 @@
         <v>453</v>
       </c>
       <c r="I136" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -6236,7 +6202,7 @@
         <v>454</v>
       </c>
       <c r="I137" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -6265,7 +6231,7 @@
         <v>455</v>
       </c>
       <c r="I138" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -6323,7 +6289,7 @@
         <v>457</v>
       </c>
       <c r="I140" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -6381,7 +6347,7 @@
         <v>459</v>
       </c>
       <c r="I142" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -6410,7 +6376,7 @@
         <v>459</v>
       </c>
       <c r="I143" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -6439,7 +6405,7 @@
         <v>460</v>
       </c>
       <c r="I144" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -6468,7 +6434,7 @@
         <v>461</v>
       </c>
       <c r="I145" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -6526,7 +6492,7 @@
         <v>462</v>
       </c>
       <c r="I147" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -6555,7 +6521,7 @@
         <v>463</v>
       </c>
       <c r="I148" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -6584,7 +6550,7 @@
         <v>464</v>
       </c>
       <c r="I149" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -6613,7 +6579,7 @@
         <v>465</v>
       </c>
       <c r="I150" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -6671,7 +6637,7 @@
         <v>466</v>
       </c>
       <c r="I152" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -6700,7 +6666,7 @@
         <v>467</v>
       </c>
       <c r="I153" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -6729,7 +6695,7 @@
         <v>468</v>
       </c>
       <c r="I154" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -6758,7 +6724,7 @@
         <v>469</v>
       </c>
       <c r="I155" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -6787,7 +6753,7 @@
         <v>470</v>
       </c>
       <c r="I156" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -6816,7 +6782,7 @@
         <v>471</v>
       </c>
       <c r="I157" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -6845,7 +6811,7 @@
         <v>472</v>
       </c>
       <c r="I158" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -6874,7 +6840,7 @@
         <v>473</v>
       </c>
       <c r="I159" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -7048,7 +7014,7 @@
         <v>477</v>
       </c>
       <c r="I165" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -7164,7 +7130,7 @@
         <v>480</v>
       </c>
       <c r="I169" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -7193,7 +7159,7 @@
         <v>480</v>
       </c>
       <c r="I170" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -7222,7 +7188,7 @@
         <v>481</v>
       </c>
       <c r="I171" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -7280,7 +7246,7 @@
         <v>483</v>
       </c>
       <c r="I173" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -7309,7 +7275,7 @@
         <v>484</v>
       </c>
       <c r="I174" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -7367,7 +7333,7 @@
         <v>486</v>
       </c>
       <c r="I176" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -7396,7 +7362,7 @@
         <v>486</v>
       </c>
       <c r="I177" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -7512,7 +7478,7 @@
         <v>489</v>
       </c>
       <c r="I181" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -7541,7 +7507,7 @@
         <v>489</v>
       </c>
       <c r="I182" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/2024-08-19-2024-08-20-records.xlsx
+++ b/2024-08-19-2024-08-20-records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\86\FMS_monitor_virus_autocheck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\FMS_monitor_virus_autocheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A603B-76E6-492E-8A61-E0803DC75F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5966A38-FB0D-4A68-B3B1-5DBFDD2723F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="607">
   <si>
     <t>MAC</t>
   </si>
@@ -1846,6 +1846,9 @@
   </si>
   <si>
     <t>connect to 217.8.117.10</t>
+  </si>
+  <si>
+    <t>connect to a.com</t>
   </si>
 </sst>
 </file>
@@ -2215,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4520,7 +4523,7 @@
         <v>405</v>
       </c>
       <c r="I79" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">

--- a/2024-08-19-2024-08-20-records.xlsx
+++ b/2024-08-19-2024-08-20-records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\FMS_monitor_virus_autocheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5966A38-FB0D-4A68-B3B1-5DBFDD2723F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8692E64E-F58C-4A71-8BF6-D7034A01153D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="606">
   <si>
     <t>MAC</t>
   </si>
@@ -1735,9 +1735,6 @@
   </si>
   <si>
     <t>connect to www.twitter.com</t>
-  </si>
-  <si>
-    <t>connect to arc.msn.com</t>
   </si>
   <si>
     <t>connect to ws12.gti.mcafee.com</t>
@@ -2218,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="D109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4523,7 +4520,7 @@
         <v>405</v>
       </c>
       <c r="I79" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -5103,7 +5100,7 @@
         <v>423</v>
       </c>
       <c r="I99" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -5567,7 +5564,7 @@
         <v>435</v>
       </c>
       <c r="I115" t="s">
-        <v>569</v>
+        <v>495</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5596,7 +5593,7 @@
         <v>436</v>
       </c>
       <c r="I116" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5625,7 +5622,7 @@
         <v>437</v>
       </c>
       <c r="I117" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5741,7 +5738,7 @@
         <v>441</v>
       </c>
       <c r="I121" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5770,7 +5767,7 @@
         <v>442</v>
       </c>
       <c r="I122" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -5799,7 +5796,7 @@
         <v>442</v>
       </c>
       <c r="I123" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -5828,7 +5825,7 @@
         <v>443</v>
       </c>
       <c r="I124" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5973,7 +5970,7 @@
         <v>448</v>
       </c>
       <c r="I129" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -6002,7 +5999,7 @@
         <v>448</v>
       </c>
       <c r="I130" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -6031,7 +6028,7 @@
         <v>448</v>
       </c>
       <c r="I131" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -6060,7 +6057,7 @@
         <v>449</v>
       </c>
       <c r="I132" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -6089,7 +6086,7 @@
         <v>450</v>
       </c>
       <c r="I133" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -6147,7 +6144,7 @@
         <v>452</v>
       </c>
       <c r="I135" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -6176,7 +6173,7 @@
         <v>453</v>
       </c>
       <c r="I136" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -6205,7 +6202,7 @@
         <v>454</v>
       </c>
       <c r="I137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -6234,7 +6231,7 @@
         <v>455</v>
       </c>
       <c r="I138" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -6292,7 +6289,7 @@
         <v>457</v>
       </c>
       <c r="I140" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -6350,7 +6347,7 @@
         <v>459</v>
       </c>
       <c r="I142" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -6379,7 +6376,7 @@
         <v>459</v>
       </c>
       <c r="I143" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -6408,7 +6405,7 @@
         <v>460</v>
       </c>
       <c r="I144" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -6437,7 +6434,7 @@
         <v>461</v>
       </c>
       <c r="I145" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -6495,7 +6492,7 @@
         <v>462</v>
       </c>
       <c r="I147" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -6524,7 +6521,7 @@
         <v>463</v>
       </c>
       <c r="I148" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -6553,7 +6550,7 @@
         <v>464</v>
       </c>
       <c r="I149" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -6582,7 +6579,7 @@
         <v>465</v>
       </c>
       <c r="I150" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -6640,7 +6637,7 @@
         <v>466</v>
       </c>
       <c r="I152" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -6669,7 +6666,7 @@
         <v>467</v>
       </c>
       <c r="I153" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -6698,7 +6695,7 @@
         <v>468</v>
       </c>
       <c r="I154" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -6785,7 +6782,7 @@
         <v>471</v>
       </c>
       <c r="I157" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -6843,7 +6840,7 @@
         <v>473</v>
       </c>
       <c r="I159" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -7017,7 +7014,7 @@
         <v>477</v>
       </c>
       <c r="I165" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -7133,7 +7130,7 @@
         <v>480</v>
       </c>
       <c r="I169" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -7162,7 +7159,7 @@
         <v>480</v>
       </c>
       <c r="I170" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -7191,7 +7188,7 @@
         <v>481</v>
       </c>
       <c r="I171" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -7249,7 +7246,7 @@
         <v>483</v>
       </c>
       <c r="I173" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -7278,7 +7275,7 @@
         <v>484</v>
       </c>
       <c r="I174" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -7336,7 +7333,7 @@
         <v>486</v>
       </c>
       <c r="I176" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -7365,7 +7362,7 @@
         <v>486</v>
       </c>
       <c r="I177" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -7481,7 +7478,7 @@
         <v>489</v>
       </c>
       <c r="I181" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -7510,7 +7507,7 @@
         <v>489</v>
       </c>
       <c r="I182" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
